--- a/ACTIVE/Updated AZU_SQL_02/Updated AZU_SQL_02.xlsx
+++ b/ACTIVE/Updated AZU_SQL_02/Updated AZU_SQL_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkaja\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rglazebrook\source\repos\Application Support\ACTIVE\Updated AZU_SQL_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9B5168-288A-4E74-9397-1446A3DEE45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055B4087-0126-4943-AF03-5D0E3B901BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AF01D65F-1999-4025-94C5-3FC81ACF4C18}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AF01D65F-1999-4025-94C5-3FC81ACF4C18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="387">
   <si>
     <t>JOB ID</t>
   </si>
@@ -1194,6 +1192,12 @@
   </si>
   <si>
     <t>Occurs every day at 2:00:00 AM. Schedule will be used starting on 1/1/2008.</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Archive</t>
   </si>
 </sst>
 </file>
@@ -1223,12 +1227,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1243,13 +1253,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1564,33 +1575,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F09358D-CA13-4D09-91DB-DBA3340D6552}">
-  <dimension ref="A1:Q118"/>
+  <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="K114" sqref="K114:K118"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" customWidth="1"/>
-    <col min="2" max="2" width="29.26953125" customWidth="1"/>
-    <col min="3" max="3" width="40.7265625" customWidth="1"/>
-    <col min="4" max="4" width="34.54296875" customWidth="1"/>
-    <col min="5" max="5" width="7.453125" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" customWidth="1"/>
-    <col min="10" max="10" width="33.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.90625" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.6328125" customWidth="1"/>
-    <col min="14" max="14" width="22.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" customWidth="1"/>
+    <col min="3" max="3" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+    <col min="10" max="10" width="33.77734375" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="27.6640625" customWidth="1"/>
+    <col min="14" max="14" width="22.21875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="17.77734375" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>324</v>
       </c>
@@ -1642,8 +1654,11 @@
       <c r="Q1" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>325</v>
       </c>
@@ -1683,8 +1698,11 @@
       <c r="Q2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>325</v>
       </c>
@@ -1730,8 +1748,11 @@
       <c r="Q3" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>325</v>
       </c>
@@ -1772,7 +1793,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>325</v>
       </c>
@@ -1813,7 +1834,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>325</v>
       </c>
@@ -1854,7 +1875,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>325</v>
       </c>
@@ -1895,7 +1916,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>325</v>
       </c>
@@ -1936,7 +1957,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>325</v>
       </c>
@@ -1983,7 +2004,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>325</v>
       </c>
@@ -2030,7 +2051,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>325</v>
       </c>
@@ -2076,8 +2097,11 @@
       <c r="Q11" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>325</v>
       </c>
@@ -2123,8 +2147,11 @@
       <c r="Q12" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R12" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>325</v>
       </c>
@@ -2170,8 +2197,11 @@
       <c r="Q13" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R13" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>325</v>
       </c>
@@ -2217,8 +2247,11 @@
       <c r="Q14" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R14" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>325</v>
       </c>
@@ -2270,8 +2303,11 @@
       <c r="Q15" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>325</v>
       </c>
@@ -2323,8 +2359,11 @@
       <c r="Q16" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R16" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>325</v>
       </c>
@@ -2376,8 +2415,11 @@
       <c r="Q17" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R17" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>325</v>
       </c>
@@ -2429,8 +2471,11 @@
       <c r="Q18" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R18" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>325</v>
       </c>
@@ -2482,8 +2527,11 @@
       <c r="Q19" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>325</v>
       </c>
@@ -2535,8 +2583,11 @@
       <c r="Q20" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R20" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>325</v>
       </c>
@@ -2588,8 +2639,11 @@
       <c r="Q21" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>325</v>
       </c>
@@ -2641,8 +2695,11 @@
       <c r="Q22" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R22" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>325</v>
       </c>
@@ -2694,8 +2751,11 @@
       <c r="Q23" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R23" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>325</v>
       </c>
@@ -2747,8 +2807,11 @@
       <c r="Q24" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R24" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>325</v>
       </c>
@@ -2800,8 +2863,11 @@
       <c r="Q25" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R25" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>325</v>
       </c>
@@ -2853,8 +2919,11 @@
       <c r="Q26" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>325</v>
       </c>
@@ -2906,8 +2975,11 @@
       <c r="Q27" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R27" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>325</v>
       </c>
@@ -2959,8 +3031,11 @@
       <c r="Q28" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R28" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -3012,8 +3087,11 @@
       <c r="Q29" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R29" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>325</v>
       </c>
@@ -3065,8 +3143,11 @@
       <c r="Q30" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R30" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>325</v>
       </c>
@@ -3118,8 +3199,11 @@
       <c r="Q31" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R31" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>325</v>
       </c>
@@ -3171,8 +3255,11 @@
       <c r="Q32" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R32" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>325</v>
       </c>
@@ -3224,8 +3311,11 @@
       <c r="Q33" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R33" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>325</v>
       </c>
@@ -3277,8 +3367,11 @@
       <c r="Q34" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R34" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>325</v>
       </c>
@@ -3330,8 +3423,11 @@
       <c r="Q35" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R35" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>325</v>
       </c>
@@ -3383,8 +3479,11 @@
       <c r="Q36" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R36" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>325</v>
       </c>
@@ -3437,7 +3536,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>325</v>
       </c>
@@ -3490,7 +3589,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>325</v>
       </c>
@@ -3543,7 +3642,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>325</v>
       </c>
@@ -3595,8 +3694,11 @@
       <c r="Q40" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R40" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>325</v>
       </c>
@@ -3648,8 +3750,11 @@
       <c r="Q41" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R41" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>325</v>
       </c>
@@ -3701,8 +3806,11 @@
       <c r="Q42" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>325</v>
       </c>
@@ -3749,7 +3857,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>325</v>
       </c>
@@ -3796,7 +3904,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>325</v>
       </c>
@@ -3843,7 +3951,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>325</v>
       </c>
@@ -3890,7 +3998,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>325</v>
       </c>
@@ -3937,7 +4045,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>325</v>
       </c>
@@ -3984,7 +4092,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>325</v>
       </c>
@@ -4031,7 +4139,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>325</v>
       </c>
@@ -4078,7 +4186,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>325</v>
       </c>
@@ -4125,7 +4233,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>325</v>
       </c>
@@ -4172,7 +4280,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>325</v>
       </c>
@@ -4213,7 +4321,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>325</v>
       </c>
@@ -4260,7 +4368,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>325</v>
       </c>
@@ -4306,8 +4414,11 @@
       <c r="Q55" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R55" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>325</v>
       </c>
@@ -4353,8 +4464,11 @@
       <c r="Q56" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R56" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>325</v>
       </c>
@@ -4400,8 +4514,11 @@
       <c r="Q57" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R57" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>325</v>
       </c>
@@ -4447,8 +4564,11 @@
       <c r="Q58" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R58" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>325</v>
       </c>
@@ -4494,8 +4614,11 @@
       <c r="Q59" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R59" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>325</v>
       </c>
@@ -4547,8 +4670,11 @@
       <c r="Q60" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R60" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>325</v>
       </c>
@@ -4600,8 +4726,11 @@
       <c r="Q61" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R61" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>325</v>
       </c>
@@ -4653,8 +4782,11 @@
       <c r="Q62" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R62" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>325</v>
       </c>
@@ -4706,8 +4838,11 @@
       <c r="Q63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R63" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>325</v>
       </c>
@@ -4759,8 +4894,11 @@
       <c r="Q64" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R64" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>325</v>
       </c>
@@ -4812,8 +4950,11 @@
       <c r="Q65" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R65" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>325</v>
       </c>
@@ -4865,8 +5006,11 @@
       <c r="Q66" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R66" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>325</v>
       </c>
@@ -4912,8 +5056,11 @@
       <c r="Q67" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R67" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>325</v>
       </c>
@@ -4959,8 +5106,11 @@
       <c r="Q68" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R68" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>325</v>
       </c>
@@ -5001,7 +5151,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>325</v>
       </c>
@@ -5053,8 +5203,11 @@
       <c r="Q70" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R70" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>325</v>
       </c>
@@ -5100,8 +5253,11 @@
       <c r="Q71" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R71" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>325</v>
       </c>
@@ -5147,8 +5303,11 @@
       <c r="Q72" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R72" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>325</v>
       </c>
@@ -5194,8 +5353,11 @@
       <c r="Q73" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R73" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>325</v>
       </c>
@@ -5241,8 +5403,11 @@
       <c r="Q74" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R74" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>325</v>
       </c>
@@ -5288,8 +5453,11 @@
       <c r="Q75" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R75" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>325</v>
       </c>
@@ -5335,8 +5503,11 @@
       <c r="Q76" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R76" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>325</v>
       </c>
@@ -5382,8 +5553,11 @@
       <c r="Q77" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R77" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>325</v>
       </c>
@@ -5429,8 +5603,11 @@
       <c r="Q78" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R78" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>325</v>
       </c>
@@ -5476,8 +5653,11 @@
       <c r="Q79" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R79" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>325</v>
       </c>
@@ -5523,8 +5703,11 @@
       <c r="Q80" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R80" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>325</v>
       </c>
@@ -5570,8 +5753,11 @@
       <c r="Q81" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R81" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>325</v>
       </c>
@@ -5617,8 +5803,11 @@
       <c r="Q82" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R82" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>325</v>
       </c>
@@ -5664,8 +5853,11 @@
       <c r="Q83" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R83" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>325</v>
       </c>
@@ -5711,8 +5903,11 @@
       <c r="Q84" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R84" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>325</v>
       </c>
@@ -5758,8 +5953,11 @@
       <c r="Q85" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R85" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>325</v>
       </c>
@@ -5805,8 +6003,11 @@
       <c r="Q86" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R86" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>325</v>
       </c>
@@ -5852,8 +6053,11 @@
       <c r="Q87" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R87" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>325</v>
       </c>
@@ -5899,8 +6103,11 @@
       <c r="Q88" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R88" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>325</v>
       </c>
@@ -5946,8 +6153,11 @@
       <c r="Q89" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R89" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>325</v>
       </c>
@@ -5993,8 +6203,11 @@
       <c r="Q90" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R90" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>325</v>
       </c>
@@ -6040,8 +6253,11 @@
       <c r="Q91" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R91" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>325</v>
       </c>
@@ -6087,8 +6303,11 @@
       <c r="Q92" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R92" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>325</v>
       </c>
@@ -6134,8 +6353,11 @@
       <c r="Q93" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R93" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>325</v>
       </c>
@@ -6187,8 +6409,11 @@
       <c r="Q94" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R94" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>325</v>
       </c>
@@ -6240,8 +6465,11 @@
       <c r="Q95" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R95" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>325</v>
       </c>
@@ -6288,7 +6516,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>325</v>
       </c>
@@ -6328,8 +6556,11 @@
       <c r="Q97" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R97" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>325</v>
       </c>
@@ -6369,8 +6600,11 @@
       <c r="Q98" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R98" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>325</v>
       </c>
@@ -6422,8 +6656,11 @@
       <c r="Q99" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R99" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>325</v>
       </c>
@@ -6469,8 +6706,11 @@
       <c r="Q100" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R100" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>325</v>
       </c>
@@ -6516,8 +6756,11 @@
       <c r="Q101" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R101" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>325</v>
       </c>
@@ -6563,8 +6806,11 @@
       <c r="Q102" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R102" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>325</v>
       </c>
@@ -6610,8 +6856,11 @@
       <c r="Q103" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R103" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>325</v>
       </c>
@@ -6652,7 +6901,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>325</v>
       </c>
@@ -6693,7 +6942,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>325</v>
       </c>
@@ -6740,7 +6989,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>325</v>
       </c>
@@ -6787,7 +7036,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>325</v>
       </c>
@@ -6834,7 +7083,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>325</v>
       </c>
@@ -6881,7 +7130,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>325</v>
       </c>
@@ -6928,7 +7177,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>325</v>
       </c>
@@ -6974,8 +7223,11 @@
       <c r="Q111" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R111" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>325</v>
       </c>
@@ -7021,8 +7273,11 @@
       <c r="Q112" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R112" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>325</v>
       </c>
@@ -7068,8 +7323,11 @@
       <c r="Q113" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R113" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>325</v>
       </c>
@@ -7121,8 +7379,11 @@
       <c r="Q114" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R114" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>325</v>
       </c>
@@ -7174,8 +7435,11 @@
       <c r="Q115" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R115" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>325</v>
       </c>
@@ -7227,8 +7491,11 @@
       <c r="Q116" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R116" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>325</v>
       </c>
@@ -7280,8 +7547,11 @@
       <c r="Q117" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R117" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>325</v>
       </c>
@@ -7332,6 +7602,9 @@
       </c>
       <c r="Q118" t="s">
         <v>348</v>
+      </c>
+      <c r="R118" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/ACTIVE/Updated AZU_SQL_02/Updated AZU_SQL_02.xlsx
+++ b/ACTIVE/Updated AZU_SQL_02/Updated AZU_SQL_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rglazebrook\source\repos\Application Support\ACTIVE\Updated AZU_SQL_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055B4087-0126-4943-AF03-5D0E3B901BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A25A5EE-3740-4E53-AB46-42AA84F084E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AF01D65F-1999-4025-94C5-3FC81ACF4C18}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="388">
   <si>
     <t>JOB ID</t>
   </si>
@@ -1198,6 +1198,9 @@
   </si>
   <si>
     <t>Archive</t>
+  </si>
+  <si>
+    <t>Dee to review</t>
   </si>
 </sst>
 </file>
@@ -1577,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F09358D-CA13-4D09-91DB-DBA3340D6552}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R106" sqref="R106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1792,6 +1795,9 @@
       <c r="Q4" t="s">
         <v>350</v>
       </c>
+      <c r="R4" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1833,6 +1839,9 @@
       <c r="Q5" t="s">
         <v>350</v>
       </c>
+      <c r="R5" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1874,6 +1883,9 @@
       <c r="Q6" t="s">
         <v>350</v>
       </c>
+      <c r="R6" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1915,6 +1927,9 @@
       <c r="Q7" t="s">
         <v>350</v>
       </c>
+      <c r="R7" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1956,6 +1971,9 @@
       <c r="Q8" t="s">
         <v>350</v>
       </c>
+      <c r="R8" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -3535,6 +3553,9 @@
       <c r="Q37" t="s">
         <v>350</v>
       </c>
+      <c r="R37" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -3588,6 +3609,9 @@
       <c r="Q38" t="s">
         <v>350</v>
       </c>
+      <c r="R38" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -3641,6 +3665,9 @@
       <c r="Q39" t="s">
         <v>350</v>
       </c>
+      <c r="R39" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -5150,6 +5177,9 @@
       <c r="Q69" t="s">
         <v>350</v>
       </c>
+      <c r="R69" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
@@ -6900,6 +6930,9 @@
       <c r="Q104" t="s">
         <v>350</v>
       </c>
+      <c r="R104" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
@@ -6941,6 +6974,9 @@
       <c r="Q105" t="s">
         <v>350</v>
       </c>
+      <c r="R105" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
@@ -7608,7 +7644,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q118" xr:uid="{5F09358D-CA13-4D09-91DB-DBA3340D6552}"/>
+  <autoFilter ref="A1:R118" xr:uid="{5F09358D-CA13-4D09-91DB-DBA3340D6552}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
